--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/主营业务成本.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/主营业务成本.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,377 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>258.79218</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1237.99409</v>
-      </c>
-      <c r="D2" t="n">
-        <v>420.55036</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.51937</v>
-      </c>
-      <c r="F2" t="n">
-        <v>338.13812</v>
-      </c>
-      <c r="G2" t="n">
-        <v>853.19775</v>
-      </c>
-      <c r="H2" t="n">
-        <v>354.01926</v>
-      </c>
-      <c r="I2" t="n">
-        <v>204.27217</v>
-      </c>
-      <c r="J2" t="n">
-        <v>150.17774</v>
-      </c>
-      <c r="K2" t="n">
-        <v>682.0901699999999</v>
-      </c>
-      <c r="L2" t="n">
-        <v>18583.27</v>
-      </c>
-      <c r="M2" t="n">
-        <v>132.94618</v>
-      </c>
-      <c r="N2" t="n">
-        <v>309.09801</v>
-      </c>
-      <c r="O2" t="n">
-        <v>494.22801</v>
-      </c>
-      <c r="P2" t="n">
-        <v>253.26837</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.39415</v>
-      </c>
-      <c r="R2" t="n">
-        <v>899.47587</v>
-      </c>
-      <c r="S2" t="n">
-        <v>177.349</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>219.04703</v>
-      </c>
-      <c r="V2" t="n">
-        <v>4.1556</v>
-      </c>
-      <c r="W2" t="n">
-        <v>46.36114</v>
-      </c>
-      <c r="X2" t="n">
-        <v>6.3219</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>461.28631</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>4580.07047</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1261.97528</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>641.69562</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>219.22912</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>21.53277</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>902.24829</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>2.89483</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>389.74458</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>799.54661</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>474.65229</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>11.73159</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>402.32675</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>756.85363</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>316.19534</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>295.93044</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.96328</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>322.41582</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1515.80218</v>
-      </c>
-      <c r="D3" t="n">
-        <v>479.43829</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>368.89806</v>
-      </c>
-      <c r="G3" t="n">
-        <v>983.8253099999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>176.33651</v>
-      </c>
-      <c r="I3" t="n">
-        <v>239.87851</v>
-      </c>
-      <c r="J3" t="n">
-        <v>187.69306</v>
-      </c>
-      <c r="K3" t="n">
-        <v>767.00033</v>
-      </c>
-      <c r="L3" t="n">
-        <v>21677.74</v>
-      </c>
-      <c r="M3" t="n">
-        <v>162.45312</v>
-      </c>
-      <c r="N3" t="n">
-        <v>339.98477</v>
-      </c>
-      <c r="O3" t="n">
-        <v>577.35848</v>
-      </c>
-      <c r="P3" t="n">
-        <v>242.80513</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.84191</v>
-      </c>
-      <c r="R3" t="n">
-        <v>975.63459</v>
-      </c>
-      <c r="S3" t="n">
-        <v>175.34</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>235.64299</v>
-      </c>
-      <c r="V3" t="n">
-        <v>7.55087</v>
-      </c>
-      <c r="W3" t="n">
-        <v>45.5638</v>
-      </c>
-      <c r="X3" t="n">
-        <v>6.71923</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>545.39447</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>5831.10406</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1409.71523</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>704.35027</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>374.82738</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>48.24815</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1018.76233</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>3.83625</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>458.35512</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>824.02139</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>578.11149</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>10.95893</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>467.36155</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>846.20223</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>340.38929</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>400.57163</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1.3423</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>411.43844</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2019.3302</v>
-      </c>
-      <c r="D4" t="n">
-        <v>587.16783</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>430.155</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1136.07565</v>
-      </c>
-      <c r="H4" t="n">
-        <v>245.39178</v>
-      </c>
-      <c r="I4" t="n">
-        <v>282.87728</v>
-      </c>
-      <c r="J4" t="n">
-        <v>209.72251</v>
-      </c>
-      <c r="K4" t="n">
-        <v>853.25357</v>
-      </c>
-      <c r="L4" t="n">
-        <v>25907.35</v>
-      </c>
-      <c r="M4" t="n">
-        <v>198.386</v>
-      </c>
-      <c r="N4" t="n">
-        <v>383.32018</v>
-      </c>
-      <c r="O4" t="n">
-        <v>752.25461</v>
-      </c>
-      <c r="P4" t="n">
-        <v>286.22841</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4.93356</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1073.19</v>
-      </c>
-      <c r="S4" t="n">
-        <v>173.60042</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>298.32329</v>
-      </c>
-      <c r="V4" t="n">
-        <v>4.91373</v>
-      </c>
-      <c r="W4" t="n">
-        <v>82.22212</v>
-      </c>
-      <c r="X4" t="n">
-        <v>8.46214</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>662.54276</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>7199.67966</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1585.43581</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>806.26293</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>412.59004</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>49.48334</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1170.30256</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>10.00552</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>515.28968</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>977.05924</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>669.10762</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>12.10806</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>539.05351</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1051.11085</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>366.39628</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>435.56421</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1.89639</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
